--- a/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20211.xlsx
+++ b/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="48">
   <si>
     <t>Mat</t>
   </si>
@@ -79,28 +79,85 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>MORALES</t>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>MARIN</t>
   </si>
   <si>
     <t>MONTIEL</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>GASPAR</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>RODRIGUEZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>KEVIN ISAAC</t>
+  </si>
+  <si>
+    <t>EDGAR FLORENCIO</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>HANIA ZARETH</t>
+  </si>
+  <si>
+    <t>MIROSLAVA</t>
+  </si>
+  <si>
+    <t>CITLALI ESPERANZA</t>
+  </si>
+  <si>
     <t>MARIA VALERIA</t>
   </si>
   <si>
-    <t>MIGUEL</t>
+    <t>ALEJANDRO</t>
   </si>
   <si>
     <t>IKER XAVIER</t>
@@ -962,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -997,16 +1054,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920355</v>
+        <v>21330051920005</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1020,16 +1077,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920379</v>
+        <v>21330051920006</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1043,24 +1100,185 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920275</v>
+        <v>21330051920017</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920379</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920067</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920078</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920275</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G11">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20211.xlsx
+++ b/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20211.xlsx
@@ -561,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H2">
         <v>6.6</v>
@@ -665,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>72.22</v>
+        <v>61.9</v>
       </c>
       <c r="H6">
         <v>7.1</v>
@@ -733,10 +733,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -825,10 +825,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>13</v>
@@ -890,10 +890,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>64.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H2">
         <v>6.6</v>
@@ -994,10 +994,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>72.22</v>
+        <v>61.9</v>
       </c>
       <c r="H6">
         <v>7.1</v>
